--- a/artefacts/Skills Matrix.xlsx
+++ b/artefacts/Skills Matrix.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/murthykanuri/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/murthykanuri/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB929124-6255-C64C-84E8-37F61939050B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7C95FC-AFB8-334D-895B-74983DA03765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{DF1881D4-2755-D643-8D88-8592D296AB5E}"/>
+    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="19860" xr2:uid="{DF1881D4-2755-D643-8D88-8592D296AB5E}"/>
   </bookViews>
   <sheets>
     <sheet name="CPD &amp; Tools Review" sheetId="8" r:id="rId1"/>
-    <sheet name="RMPP" sheetId="1" r:id="rId2"/>
-    <sheet name="KRR" sheetId="3" r:id="rId3"/>
-    <sheet name="ML" sheetId="5" r:id="rId4"/>
-    <sheet name="NA" sheetId="6" r:id="rId5"/>
-    <sheet name="UAI" sheetId="7" r:id="rId6"/>
+    <sheet name="IA" sheetId="10" r:id="rId2"/>
+    <sheet name="RMPP" sheetId="1" r:id="rId3"/>
+    <sheet name="KRR" sheetId="3" r:id="rId4"/>
+    <sheet name="ML" sheetId="5" r:id="rId5"/>
+    <sheet name="NA" sheetId="6" r:id="rId6"/>
+    <sheet name="UAI" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="307">
   <si>
     <t>SKILL</t>
   </si>
@@ -273,9 +274,6 @@
   </si>
   <si>
     <t>Knowledge Representation and Reasoning  January 2025 (Completed with Distinction)</t>
-  </si>
-  <si>
-    <t>Research Methods and Professional Practice April 2025 (In Progress)</t>
   </si>
   <si>
     <t xml:space="preserve">https://m-kanuri.github.io/Module5.html 
@@ -854,9 +852,6 @@
     <t>Earn AI Certification (e.g., AI Ethics)</t>
   </si>
   <si>
-    <t>Ongoing and due October 2025</t>
-  </si>
-  <si>
     <t>Learn Power BI for Visualisation</t>
   </si>
   <si>
@@ -881,9 +876,6 @@
     <t>Curate and document your projects clearly for external viewers</t>
   </si>
   <si>
-    <t>Due July 2025</t>
-  </si>
-  <si>
     <t>Planned for Aug 2025</t>
   </si>
   <si>
@@ -972,9 +964,6 @@
   </si>
   <si>
     <t>ML scripting, automation, web scraping</t>
-  </si>
-  <si>
-    <t>Understanding AI, Machine Learning, RMPP</t>
   </si>
   <si>
     <t>Data handling, ML algorithm implementation</t>
@@ -1021,13 +1010,377 @@
   </si>
   <si>
     <t xml:space="preserve">By end of 2025 </t>
+  </si>
+  <si>
+    <t>Completed October 2025</t>
+  </si>
+  <si>
+    <t>Completed July 2025</t>
+  </si>
+  <si>
+    <t>Research Methods and Professional Practice April 2025 (Completed with Distinction)</t>
+  </si>
+  <si>
+    <t>Intelligent Agents July 2025 A (Ongoing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m-kanuri.github.io/Module6.html
+</t>
+  </si>
+  <si>
+    <t>Attending all the seminar sessions. Meeting all the assignment deadlines. Have 25+ years of professional experience working in IT projects.</t>
+  </si>
+  <si>
+    <t>Evaluated the advantages and limitations of hybrid agent architectures. Analysed case studies on AI ethics and decision-making in autonomous systems.</t>
+  </si>
+  <si>
+    <t>Contributed actively to all the collaborative discussions. Moderated the Team E group project as a project Manager</t>
+  </si>
+  <si>
+    <t>Developed, tested, and maintained code for intelligent agent systems using Python and GitHub.</t>
+  </si>
+  <si>
+    <t>Conducted literature review on AI ethics and evolution; correctly applied Harvard referencing in e-portfolio reflections.</t>
+  </si>
+  <si>
+    <t>Collaborated effectively within the Unit 6 development team and peer-review tasks; demonstrated accountability and adaptability.</t>
+  </si>
+  <si>
+    <t>Applied quantitative reasoning to evaluate the accuracy and loss functions of ANN models in the Deep Learning in Action activity. Used data outputs and confusion matrices to assess model performance.</t>
+  </si>
+  <si>
+    <t>Continue to manage the time effectively and delivering on time &amp; quality results.</t>
+  </si>
+  <si>
+    <t>Strengthen by applying structured evaluation frameworks (e.g., SWOT or ethical impact analysis) to future AI design tasks.</t>
+  </si>
+  <si>
+    <t>Improve by producing concise technical summaries and enhancing clarity in collaborative documentation.</t>
+  </si>
+  <si>
+    <t>Continue exploring advanced AI frameworks (e.g., TensorFlow, spaCy) and apply version control best practices in future development.</t>
+  </si>
+  <si>
+    <t>Enhance numerical analysis by studying statistical validation methods such as cross-validation and standard deviation in model testing. Incorporate data visualisation to communicate performance metrics clearly.</t>
+  </si>
+  <si>
+    <t>Continue systematic literature searches; summarise two new AI-ethics articles each month for ongoing professional development.</t>
+  </si>
+  <si>
+    <t>Take leadership or coordination roles in future projects; mentor peers to strengthen facilitation and negotiation skills.</t>
+  </si>
+  <si>
+    <t>Diagnosed coding issues during the team project and individual development project. Integrated feedback from peers to improve functionality</t>
+  </si>
+  <si>
+    <t>Formalise a debugging checklist (repro steps, logs, tests, fix, verify); increase test coverage (unit/integration) for agent modules; run post-mortems after defects to capture lessons learned in the e-portfolio.</t>
+  </si>
+  <si>
+    <t>Reflected on ethical implications of intelligent agents in discussions and portfolio; considered bias and accountability.</t>
+  </si>
+  <si>
+    <t>Expand understanding through IEEE and ACM ethical AI frameworks; integrate ethics checklists in future system designs.</t>
+  </si>
+  <si>
+    <t>Advances</t>
+  </si>
+  <si>
+    <t>Intermediate</t>
+  </si>
+  <si>
+    <t>Main Page : https://m-kanuri.github.io/module6/2025/08/19/IA-Unit4.html 
+Module Wiki : https://m-kanuri.github.io/artefacts/IA-Unit04-Module_Wiki.pdf  (Continued till end of the module)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Main Page : https://m-kanuri.github.io/module6/2025/07/29/IA-Unit1.html 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Collaborative Discussion 1 – Agent Based Systems</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Initial Post: https://m-kanuri.github.io/artefacts/IA-Unit01-Initial_Post.pdf
+- Module Wiki : https://m-kanuri.github.io/artefacts/IA-Unit04-Module_Wiki.pdf  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Main Page : https://m-kanuri.github.io/module6/2025/08/05/IA-Unit2.html 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Collaborative Discussion 1 – Agent Based Systems</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Peer Response: https://m-kanuri.github.io/artefacts/IA-Unit01-Peer_Response.pdf </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Main Page : https://m-kanuri.github.io/module6/2025/08/12/IA-Unit3.html
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Collaborative Discussion 1 – Agent Based Systems</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Summary Post: https://m-kanuri.github.io/artefacts/IA-Unit01-SummaryPost.pdf </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Main Page : https://m-kanuri.github.io/module6/2025/08/26/IA-Unit5.html 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Collaborative Discussion 2 – Agent Communication Languages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Initial Post: https://m-kanuri.github.io/artefacts/IA-Unit05-Initial_Post.pdf </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Main Page : https://m-kanuri.github.io/module6/2025/09/02/IA-Unit6.html 
+Creating Agent Dialogues : Activity Guidance: https://m-kanuri.github.io/artefacts/IA-Unit06-CreatingAgentDialogues.pdf 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Collaborative Discussion 2 – Agent Communication Languages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Peer Response: https://m-kanuri.github.io/artefacts/IA-Unit05-Peer_Response.pdf 
+Development Team Project : https://m-kanuri.github.io/artefacts/IA-Unit06-DevelopmentTeamProjectReport.pdf 
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Main Page : https://m-kanuri.github.io/module6/2025/09/09/IA-Unit7.html 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Collaborative Discussion 2 – Agent Communication Languages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Summary Post: https://m-kanuri.github.io/artefacts/IA-Unit05-SummaryPost.pdf </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Page : https://m-kanuri.github.io/module6/2025/09/16/IA-Unit8.html 
+Parse Tree : https://m-kanuri.github.io/artefacts/IA-Unit08-Parse_Tree.pdf </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Main Page : https://m-kanuri.github.io/module6/2025/09/23/IA-Unit9.html 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Collaborative Discussion 2 – Agent Communication Languages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Initial Post:  https://m-kanuri.github.io/artefacts/IA-Unit09-Initial_Post.pdf  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Main Page : https://m-kanuri.github.io/module6/2025/09/30/IA-Unit10.html 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Collaborative Discussion 2 – Agent Communication Languages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Peer Response: https://m-kanuri.github.io/artefacts/IA-Unit09-Peer_Response.pdf </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Main Page: https://m-kanuri.github.io/module6/2025/10/07/IA-Unit11.html 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Collaborative Discussion 2 – Agent Communication Languages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Summary Post:  https://m-kanuri.github.io/artefacts/IA-Unit09-SummaryPost.pdf
+- Development Individual Project Presentation: https://m-kanuri.github.io/artefacts/IA-Unit11-Development%20Individual%20Project-%20Presentation.pdf 
+- Transcript : https://m-kanuri.github.io/artefacts/IA-Unit11-Development%20Individual%20Project%20-%20Transcript%20Text.pdf
+- GitHub Repo: https://github.com/m-kanuri/ia_agent </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Page:https://m-kanuri.github.io/module6/2025/10/14/IA-Unit12.html
+Reflection: This document
+E-Portfolio:  https://m-kanuri.github.io/ (m-kanuri, 2024, updated 2025)
+https://m-kanuri.github.io/Module6.html </t>
+  </si>
+  <si>
+    <t>Understanding AI, Machine Learning, RMPP, Intelligent Agents</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>Version control and collaborative development environment for managing team code, documentation, and version history.</t>
+  </si>
+  <si>
+    <t>All Modules</t>
+  </si>
+  <si>
+    <t>JIRA / Trello</t>
+  </si>
+  <si>
+    <t>Agile project management for sprint planning, task allocation, and progress tracking.</t>
+  </si>
+  <si>
+    <t>Draw.io</t>
+  </si>
+  <si>
+    <t>Used to design architecture diagrams and communication models</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1105,6 +1458,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1172,7 +1532,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1244,6 +1604,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1267,15 +1631,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1816100</xdr:colOff>
+      <xdr:colOff>1765300</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>444500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1290,7 +1654,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15303500" y="6007100"/>
+          <a:off x="15252700" y="8140700"/>
           <a:ext cx="6438900" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1653,7 +2017,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1669,12 +2033,12 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
       <c r="F1" s="21" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G1" s="21"/>
       <c r="H1" s="21"/>
@@ -1682,330 +2046,358 @@
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C2" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>195</v>
-      </c>
       <c r="F2" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>230</v>
-      </c>
       <c r="H2" s="15" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>174</v>
-      </c>
       <c r="F3" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>198</v>
-      </c>
       <c r="C4" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C5" s="18">
-        <v>45931</v>
+        <v>216</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>262</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>200</v>
-      </c>
       <c r="F6" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="C8" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="I7" s="6" t="s">
+      <c r="H8" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="38" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>205</v>
-      </c>
       <c r="F9" s="19" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="38" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="95" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="I11" s="28"/>
+    </row>
+    <row r="12" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C12" s="18">
         <v>45992</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="38" x14ac:dyDescent="0.2">
+      <c r="F12" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="I12" s="28"/>
+    </row>
+    <row r="13" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>219</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
     </row>
     <row r="14" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>212</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>182</v>
-      </c>
       <c r="C16" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="38" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="38" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="17" t="s">
         <v>186</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="17" t="s">
         <v>189</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2014,16 +2406,344 @@
     <mergeCell ref="F1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50D37AC-DD7B-214F-93DC-2FEF66E4C988}">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="56.1640625" customWidth="1"/>
+    <col min="4" max="4" width="67.83203125" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="8" max="8" width="105.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
+    </row>
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="G3" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="23"/>
+    </row>
+    <row r="4" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="146" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="40" x14ac:dyDescent="0.2">
+      <c r="G14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+      <c r="G15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+      <c r="G16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" ht="160" x14ac:dyDescent="0.2">
+      <c r="G17" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="G18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="G3:H3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H5" r:id="rId1" xr:uid="{4D44A104-544E-994E-A14D-AEE25A3F885C}"/>
+    <hyperlink ref="H6" r:id="rId2" xr:uid="{D8741417-73C1-CC4E-91D5-727366612F2F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFAAA56-B893-4743-BF4A-885C4EC6C5C9}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2041,7 +2761,7 @@
         <v>68</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>72</v>
+        <v>264</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="26"/>
@@ -2092,7 +2812,7 @@
         <v>6</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>44</v>
@@ -2112,10 +2832,10 @@
         <v>10</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="140" x14ac:dyDescent="0.2">
@@ -2135,7 +2855,7 @@
         <v>47</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="40" x14ac:dyDescent="0.2">
@@ -2155,7 +2875,7 @@
         <v>48</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="40" x14ac:dyDescent="0.2">
@@ -2169,13 +2889,13 @@
         <v>18</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>51</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
@@ -2192,10 +2912,10 @@
         <v>22</v>
       </c>
       <c r="G10" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -2215,7 +2935,7 @@
         <v>52</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2235,7 +2955,7 @@
         <v>53</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="226" customHeight="1" x14ac:dyDescent="0.2">
@@ -2255,7 +2975,7 @@
         <v>54</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.2">
@@ -2263,7 +2983,7 @@
         <v>55</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="200" x14ac:dyDescent="0.2">
@@ -2271,7 +2991,7 @@
         <v>56</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="80" x14ac:dyDescent="0.2">
@@ -2279,7 +2999,7 @@
         <v>57</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="7:8" ht="20" x14ac:dyDescent="0.2">
@@ -2287,7 +3007,7 @@
         <v>58</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="7:8" ht="40" x14ac:dyDescent="0.2">
@@ -2295,7 +3015,7 @@
         <v>59</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="7:8" x14ac:dyDescent="0.2">
@@ -2345,7 +3065,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1258B4C1-0F89-1B42-8D75-FB4421327E64}">
   <dimension ref="A1:H26"/>
   <sheetViews>
@@ -2421,7 +3141,7 @@
         <v>35</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>44</v>
@@ -2524,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="57" x14ac:dyDescent="0.2">
@@ -2670,7 +3390,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A19581F-8135-2C46-8943-DCA04F8164C6}">
   <dimension ref="A1:H26"/>
   <sheetViews>
@@ -2695,7 +3415,7 @@
         <v>68</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1" s="25"/>
     </row>
@@ -2739,13 +3459,13 @@
         <v>33</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="G5" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>44</v>
@@ -2759,16 +3479,16 @@
         <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="G6" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="76" x14ac:dyDescent="0.2">
@@ -2779,16 +3499,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>108</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>47</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="57" x14ac:dyDescent="0.2">
@@ -2799,16 +3519,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>48</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="57" x14ac:dyDescent="0.2">
@@ -2819,16 +3539,16 @@
         <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>112</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>51</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -2839,16 +3559,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>114</v>
-      </c>
       <c r="G10" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="95" x14ac:dyDescent="0.2">
@@ -2859,16 +3579,16 @@
         <v>5</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>52</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="118" customHeight="1" x14ac:dyDescent="0.2">
@@ -2879,16 +3599,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>53</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
@@ -2899,16 +3619,16 @@
         <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>54</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="95" x14ac:dyDescent="0.2">
@@ -2916,7 +3636,7 @@
         <v>55</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="38" x14ac:dyDescent="0.2">
@@ -2924,7 +3644,7 @@
         <v>56</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="38" x14ac:dyDescent="0.2">
@@ -2932,7 +3652,7 @@
         <v>57</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="7:8" ht="152" x14ac:dyDescent="0.2">
@@ -2940,7 +3660,7 @@
         <v>58</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="7:8" x14ac:dyDescent="0.2">
@@ -2948,7 +3668,7 @@
         <v>59</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="7:8" x14ac:dyDescent="0.2">
@@ -2998,7 +3718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC14997-867D-6843-8512-BA9E9DB2ABE1}">
   <dimension ref="A1:H21"/>
   <sheetViews>
@@ -3023,7 +3743,7 @@
         <v>68</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C1" s="25"/>
     </row>
@@ -3067,13 +3787,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>44</v>
@@ -3087,16 +3807,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>46</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="76" x14ac:dyDescent="0.2">
@@ -3107,16 +3827,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>51</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="57" x14ac:dyDescent="0.2">
@@ -3124,19 +3844,19 @@
         <v>14</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>52</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="57" x14ac:dyDescent="0.2">
@@ -3144,19 +3864,19 @@
         <v>17</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>54</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -3167,16 +3887,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>55</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="57" x14ac:dyDescent="0.2">
@@ -3187,16 +3907,16 @@
         <v>5</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>137</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>56</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="57" x14ac:dyDescent="0.2">
@@ -3204,19 +3924,19 @@
         <v>26</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>57</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="57" x14ac:dyDescent="0.2">
@@ -3227,16 +3947,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>133</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>58</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -3282,10 +4002,11 @@
     <hyperlink ref="H6" r:id="rId2" xr:uid="{DC0FC2D5-28FF-3341-B4C3-2EF693C4F5D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F730D9B-3389-C440-B828-D82723BCB47D}">
   <dimension ref="A1:H21"/>
   <sheetViews>
@@ -3310,7 +4031,7 @@
         <v>68</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="26"/>
@@ -3355,13 +4076,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="G5" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>44</v>
@@ -3375,16 +4096,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>159</v>
-      </c>
       <c r="G6" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>151</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="59" customHeight="1" x14ac:dyDescent="0.2">
@@ -3395,16 +4116,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>47</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="57" x14ac:dyDescent="0.2">
@@ -3412,19 +4133,19 @@
         <v>14</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>53</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="57" x14ac:dyDescent="0.2">
@@ -3435,16 +4156,16 @@
         <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>163</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>56</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -3455,10 +4176,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -3471,10 +4192,10 @@
         <v>5</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>167</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -3487,10 +4208,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -3503,10 +4224,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>171</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -3554,5 +4275,6 @@
     <hyperlink ref="H6" r:id="rId2" xr:uid="{76270A08-0F8F-4047-A3F6-A77E2645B5F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/artefacts/Skills Matrix.xlsx
+++ b/artefacts/Skills Matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/murthykanuri/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7C95FC-AFB8-334D-895B-74983DA03765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49720374-F850-F74E-B6B4-904F3672D45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="19860" xr2:uid="{DF1881D4-2755-D643-8D88-8592D296AB5E}"/>
+    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="19860" activeTab="1" xr2:uid="{DF1881D4-2755-D643-8D88-8592D296AB5E}"/>
   </bookViews>
   <sheets>
     <sheet name="CPD &amp; Tools Review" sheetId="8" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="308">
   <si>
     <t>SKILL</t>
   </si>
@@ -1346,34 +1346,37 @@
     </r>
   </si>
   <si>
+    <t>Understanding AI, Machine Learning, RMPP, Intelligent Agents</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>Version control and collaborative development environment for managing team code, documentation, and version history.</t>
+  </si>
+  <si>
+    <t>All Modules</t>
+  </si>
+  <si>
+    <t>JIRA / Trello</t>
+  </si>
+  <si>
+    <t>Agile project management for sprint planning, task allocation, and progress tracking.</t>
+  </si>
+  <si>
+    <t>Draw.io</t>
+  </si>
+  <si>
+    <t>Used to design architecture diagrams and communication models</t>
+  </si>
+  <si>
     <t xml:space="preserve">Main Page:https://m-kanuri.github.io/module6/2025/10/14/IA-Unit12.html
-Reflection: This document
+Reflection:  https://m-kanuri.github.io/artefacts/IA-Unit12-Reflection.pdf
 E-Portfolio:  https://m-kanuri.github.io/ (m-kanuri, 2024, updated 2025)
 https://m-kanuri.github.io/Module6.html </t>
   </si>
   <si>
-    <t>Understanding AI, Machine Learning, RMPP, Intelligent Agents</t>
-  </si>
-  <si>
-    <t>GitHub</t>
-  </si>
-  <si>
-    <t>Version control and collaborative development environment for managing team code, documentation, and version history.</t>
-  </si>
-  <si>
-    <t>All Modules</t>
-  </si>
-  <si>
-    <t>JIRA / Trello</t>
-  </si>
-  <si>
-    <t>Agile project management for sprint planning, task allocation, and progress tracking.</t>
-  </si>
-  <si>
-    <t>Draw.io</t>
-  </si>
-  <si>
-    <t>Used to design architecture diagrams and communication models</t>
+    <t>IA Module</t>
   </si>
 </sst>
 </file>
@@ -2016,7 +2019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66AC610-028D-6342-BD2E-585A7494DFC2}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2199,7 +2202,7 @@
         <v>246</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>247</v>
@@ -2262,13 +2265,13 @@
         <v>223</v>
       </c>
       <c r="F11" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="H11" s="27" t="s">
         <v>301</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>302</v>
       </c>
       <c r="I11" s="28"/>
     </row>
@@ -2283,13 +2286,13 @@
         <v>45992</v>
       </c>
       <c r="F12" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="G12" s="27" t="s">
         <v>303</v>
       </c>
-      <c r="G12" s="27" t="s">
-        <v>304</v>
-      </c>
       <c r="H12" s="27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I12" s="28"/>
     </row>
@@ -2304,10 +2307,10 @@
         <v>263</v>
       </c>
       <c r="F13" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="G13" s="27" t="s">
         <v>305</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>306</v>
       </c>
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
@@ -2415,8 +2418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50D37AC-DD7B-214F-93DC-2FEF66E4C988}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2505,7 +2508,7 @@
         <v>275</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>73</v>
+        <v>307</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>266</v>
@@ -2688,7 +2691,7 @@
         <v>59</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="7:8" x14ac:dyDescent="0.2">

--- a/artefacts/Skills Matrix.xlsx
+++ b/artefacts/Skills Matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/murthykanuri/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49720374-F850-F74E-B6B4-904F3672D45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0267318-5AF4-7D40-AA0C-398B8BDDDA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="19860" activeTab="1" xr2:uid="{DF1881D4-2755-D643-8D88-8592D296AB5E}"/>
+    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="19860" xr2:uid="{DF1881D4-2755-D643-8D88-8592D296AB5E}"/>
   </bookViews>
   <sheets>
     <sheet name="CPD &amp; Tools Review" sheetId="8" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="308">
   <si>
     <t>SKILL</t>
   </si>
@@ -268,9 +268,6 @@
   </si>
   <si>
     <t>SKILLS MATRIX</t>
-  </si>
-  <si>
-    <t>E- Portfolio Evidence by Unit</t>
   </si>
   <si>
     <t>Knowledge Representation and Reasoning  January 2025 (Completed with Distinction)</t>
@@ -1028,9 +1025,6 @@
 </t>
   </si>
   <si>
-    <t>Attending all the seminar sessions. Meeting all the assignment deadlines. Have 25+ years of professional experience working in IT projects.</t>
-  </si>
-  <si>
     <t>Evaluated the advantages and limitations of hybrid agent architectures. Analysed case studies on AI ethics and decision-making in autonomous systems.</t>
   </si>
   <si>
@@ -1049,9 +1043,6 @@
     <t>Applied quantitative reasoning to evaluate the accuracy and loss functions of ANN models in the Deep Learning in Action activity. Used data outputs and confusion matrices to assess model performance.</t>
   </si>
   <si>
-    <t>Continue to manage the time effectively and delivering on time &amp; quality results.</t>
-  </si>
-  <si>
     <t>Strengthen by applying structured evaluation frameworks (e.g., SWOT or ethical impact analysis) to future AI design tasks.</t>
   </si>
   <si>
@@ -1070,9 +1061,6 @@
     <t>Take leadership or coordination roles in future projects; mentor peers to strengthen facilitation and negotiation skills.</t>
   </si>
   <si>
-    <t>Diagnosed coding issues during the team project and individual development project. Integrated feedback from peers to improve functionality</t>
-  </si>
-  <si>
     <t>Formalise a debugging checklist (repro steps, logs, tests, fix, verify); increase test coverage (unit/integration) for agent modules; run post-mortems after defects to capture lessons learned in the e-portfolio.</t>
   </si>
   <si>
@@ -1080,9 +1068,6 @@
   </si>
   <si>
     <t>Expand understanding through IEEE and ACM ethical AI frameworks; integrate ethics checklists in future system designs.</t>
-  </si>
-  <si>
-    <t>Advances</t>
   </si>
   <si>
     <t>Intermediate</t>
@@ -1370,13 +1355,28 @@
     <t>Used to design architecture diagrams and communication models</t>
   </si>
   <si>
+    <t>IA Module</t>
+  </si>
+  <si>
+    <t>Attending all the seminar sessions, meeting all deadlines. Over 25 years of professional experience working on IT projects.</t>
+  </si>
+  <si>
+    <t>Continue to manage the time effectively, delivering work on schedule and maintaining quality results.</t>
+  </si>
+  <si>
+    <t>Diagnosed coding issues during the team project and individual development project. Integrated feedback from peers to improve functionality.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Main Page:https://m-kanuri.github.io/module6/2025/10/14/IA-Unit12.html
 Reflection:  https://m-kanuri.github.io/artefacts/IA-Unit12-Reflection.pdf
-E-Portfolio:  https://m-kanuri.github.io/ (m-kanuri, 2024, updated 2025)
+e-portfolio:  https://m-kanuri.github.io/ (m-kanuri, 2024, updated 2025)
 https://m-kanuri.github.io/Module6.html </t>
   </si>
   <si>
-    <t>IA Module</t>
+    <t>e-portfolio Evidence by Unit</t>
+  </si>
+  <si>
+    <t>Applicable modules</t>
   </si>
 </sst>
 </file>
@@ -1535,7 +1535,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1586,17 +1586,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1607,10 +1602,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2019,8 +2016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66AC610-028D-6342-BD2E-585A7494DFC2}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2035,372 +2032,374 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="F1" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="A1" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="F1" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C2" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>194</v>
-      </c>
       <c r="F2" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="H2" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>225</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>173</v>
-      </c>
       <c r="F3" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>197</v>
-      </c>
       <c r="C4" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>216</v>
-      </c>
       <c r="C5" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>237</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>199</v>
-      </c>
       <c r="F6" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>246</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="38" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>204</v>
-      </c>
       <c r="F9" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="G9" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="H9" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="I9" s="19" t="s">
         <v>249</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>253</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="95" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>299</v>
+      <c r="F11" s="6" t="s">
+        <v>294</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>301</v>
-      </c>
-      <c r="I11" s="28"/>
+        <v>295</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="I11" s="20"/>
     </row>
     <row r="12" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>214</v>
       </c>
       <c r="C12" s="18">
         <v>45992</v>
       </c>
-      <c r="F12" s="27" t="s">
-        <v>302</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>301</v>
-      </c>
-      <c r="I12" s="28"/>
+      <c r="F12" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="I12" s="20"/>
     </row>
     <row r="13" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>304</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
+        <v>262</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="17" t="s">
         <v>211</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>181</v>
-      </c>
       <c r="C16" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="38" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="38" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="17" t="s">
         <v>185</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="17" t="s">
         <v>188</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="C21" s="16" t="s">
         <v>219</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2418,8 +2417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50D37AC-DD7B-214F-93DC-2FEF66E4C988}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2436,23 +2435,23 @@
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="G3" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="23"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="G3" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -2474,7 +2473,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -2482,13 +2481,13 @@
         <v>33</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>44</v>
@@ -2502,16 +2501,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="80" x14ac:dyDescent="0.2">
@@ -2522,16 +2521,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>47</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.2">
@@ -2539,19 +2538,19 @@
         <v>14</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>285</v>
+        <v>129</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>48</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="95" x14ac:dyDescent="0.2">
@@ -2559,39 +2558,39 @@
         <v>17</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>51</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.2">
@@ -2602,16 +2601,16 @@
         <v>5</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>52</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="146" customHeight="1" x14ac:dyDescent="0.2">
@@ -2619,19 +2618,19 @@
         <v>26</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>53</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -2642,16 +2641,16 @@
         <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>54</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="40" x14ac:dyDescent="0.2">
@@ -2659,7 +2658,7 @@
         <v>55</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.2">
@@ -2667,7 +2666,7 @@
         <v>56</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.2">
@@ -2675,7 +2674,7 @@
         <v>57</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="7:8" ht="160" x14ac:dyDescent="0.2">
@@ -2683,7 +2682,7 @@
         <v>58</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="7:8" ht="80" x14ac:dyDescent="0.2">
@@ -2691,7 +2690,7 @@
         <v>59</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="7:8" x14ac:dyDescent="0.2">
@@ -2746,7 +2745,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2763,23 +2762,23 @@
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="G3" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="23"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="G3" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -2815,7 +2814,7 @@
         <v>6</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>44</v>
@@ -2835,10 +2834,10 @@
         <v>10</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="140" x14ac:dyDescent="0.2">
@@ -2858,7 +2857,7 @@
         <v>47</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="40" x14ac:dyDescent="0.2">
@@ -2878,7 +2877,7 @@
         <v>48</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="40" x14ac:dyDescent="0.2">
@@ -2892,13 +2891,13 @@
         <v>18</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>51</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
@@ -2915,10 +2914,10 @@
         <v>22</v>
       </c>
       <c r="G10" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -2938,7 +2937,7 @@
         <v>52</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2958,7 +2957,7 @@
         <v>53</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="226" customHeight="1" x14ac:dyDescent="0.2">
@@ -2978,7 +2977,7 @@
         <v>54</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.2">
@@ -2986,7 +2985,7 @@
         <v>55</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="200" x14ac:dyDescent="0.2">
@@ -2994,7 +2993,7 @@
         <v>56</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="80" x14ac:dyDescent="0.2">
@@ -3002,7 +3001,7 @@
         <v>57</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="7:8" ht="20" x14ac:dyDescent="0.2">
@@ -3010,7 +3009,7 @@
         <v>58</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="7:8" ht="40" x14ac:dyDescent="0.2">
@@ -3018,7 +3017,7 @@
         <v>59</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="7:8" x14ac:dyDescent="0.2">
@@ -3073,7 +3072,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -3092,23 +3091,23 @@
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="G3" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="23"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="G3" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -3144,7 +3143,7 @@
         <v>35</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>44</v>
@@ -3247,7 +3246,7 @@
         <v>52</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="57" x14ac:dyDescent="0.2">
@@ -3397,8 +3396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A19581F-8135-2C46-8943-DCA04F8164C6}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -3417,22 +3416,22 @@
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="25"/>
+      <c r="B1" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="24"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="G3" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="23"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="G3" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -3462,13 +3461,13 @@
         <v>33</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>103</v>
-      </c>
       <c r="G5" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>44</v>
@@ -3482,16 +3481,16 @@
         <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="G6" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="76" x14ac:dyDescent="0.2">
@@ -3502,16 +3501,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>47</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="57" x14ac:dyDescent="0.2">
@@ -3522,16 +3521,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>109</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>48</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="57" x14ac:dyDescent="0.2">
@@ -3542,16 +3541,16 @@
         <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>51</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -3562,16 +3561,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>113</v>
-      </c>
       <c r="G10" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="95" x14ac:dyDescent="0.2">
@@ -3582,16 +3581,16 @@
         <v>5</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>115</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>52</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="118" customHeight="1" x14ac:dyDescent="0.2">
@@ -3602,16 +3601,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>53</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
@@ -3622,16 +3621,16 @@
         <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>119</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>54</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="95" x14ac:dyDescent="0.2">
@@ -3639,7 +3638,7 @@
         <v>55</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="38" x14ac:dyDescent="0.2">
@@ -3647,7 +3646,7 @@
         <v>56</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="38" x14ac:dyDescent="0.2">
@@ -3655,7 +3654,7 @@
         <v>57</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="7:8" ht="152" x14ac:dyDescent="0.2">
@@ -3663,7 +3662,7 @@
         <v>58</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="7:8" x14ac:dyDescent="0.2">
@@ -3671,7 +3670,7 @@
         <v>59</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="7:8" x14ac:dyDescent="0.2">
@@ -3726,7 +3725,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -3745,22 +3744,22 @@
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="C1" s="25"/>
+      <c r="B1" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="24"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="G3" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="23"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="G3" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -3790,13 +3789,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>44</v>
@@ -3810,16 +3809,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>46</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="76" x14ac:dyDescent="0.2">
@@ -3830,16 +3829,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>51</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="57" x14ac:dyDescent="0.2">
@@ -3847,19 +3846,19 @@
         <v>14</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>142</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>52</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="57" x14ac:dyDescent="0.2">
@@ -3867,19 +3866,19 @@
         <v>17</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>54</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -3890,16 +3889,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>55</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="57" x14ac:dyDescent="0.2">
@@ -3910,16 +3909,16 @@
         <v>5</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>136</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>56</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="57" x14ac:dyDescent="0.2">
@@ -3927,19 +3926,19 @@
         <v>26</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>57</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="57" x14ac:dyDescent="0.2">
@@ -3950,16 +3949,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>58</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -4014,7 +4013,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -4033,23 +4032,23 @@
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="G3" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="23"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="G3" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -4079,13 +4078,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>156</v>
-      </c>
       <c r="G5" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>44</v>
@@ -4099,16 +4098,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>158</v>
-      </c>
       <c r="G6" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>150</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="59" customHeight="1" x14ac:dyDescent="0.2">
@@ -4119,16 +4118,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>47</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="57" x14ac:dyDescent="0.2">
@@ -4136,19 +4135,19 @@
         <v>14</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>53</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="57" x14ac:dyDescent="0.2">
@@ -4159,16 +4158,16 @@
         <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>56</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -4179,10 +4178,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>163</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>164</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -4195,10 +4194,10 @@
         <v>5</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>166</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -4211,10 +4210,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -4227,10 +4226,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
